--- a/data/doc_payments.xlsx
+++ b/data/doc_payments.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments by Doctor" sheetId="1" r:id="rId1"/>
-    <sheet name="Payments by State" sheetId="2" r:id="rId2"/>
+    <sheet name="Payments By Doctor" sheetId="1" r:id="rId1"/>
+    <sheet name="Payments By State" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2426,13 +2426,13 @@
     <t>total_doctors</t>
   </si>
   <si>
+    <t>doctors_paid</t>
+  </si>
+  <si>
     <t>total_payments</t>
   </si>
   <si>
     <t>max_payment</t>
-  </si>
-  <si>
-    <t>doctors_paid</t>
   </si>
   <si>
     <t>RI</t>
@@ -9435,13 +9435,13 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>1165.39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>732.1</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9452,13 +9452,13 @@
         <v>14</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>80704.05000000003</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32181.54</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9469,13 +9469,13 @@
         <v>6</v>
       </c>
       <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>22552.1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22057.35</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9486,13 +9486,13 @@
         <v>9</v>
       </c>
       <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>712732.120000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>702781.960000001</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9503,13 +9503,13 @@
         <v>7</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>404903.51</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>296370.98</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9520,13 +9520,13 @@
         <v>17</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>20934.97</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10215.52</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9537,13 +9537,13 @@
         <v>10</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>54964.06999999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>47231.29</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9554,13 +9554,13 @@
         <v>6</v>
       </c>
       <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
         <v>21852.9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9413.24</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9571,13 +9571,13 @@
         <v>12</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>19663.75</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>15188.05</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9588,13 +9588,13 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>2668.71</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>938.65</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9605,13 +9605,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>82148.4400000001</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>82148.4400000001</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>82148.4400000001</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9622,13 +9622,13 @@
         <v>9</v>
       </c>
       <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
         <v>96641.3300000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>90324.1400000001</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9639,13 +9639,13 @@
         <v>10</v>
       </c>
       <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
         <v>43863.90000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>38576.66</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9656,13 +9656,13 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1047.54</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1047.54</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1047.54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9673,13 +9673,13 @@
         <v>8</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>1569.47</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>846.5599999999999</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9690,13 +9690,13 @@
         <v>9</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
         <v>402720.9999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>382374.25</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9707,13 +9707,13 @@
         <v>15</v>
       </c>
       <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>234220.08</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>185695.85</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9724,13 +9724,13 @@
         <v>13</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>5064.98</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4954.18</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9741,13 +9741,13 @@
         <v>9</v>
       </c>
       <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
         <v>19473.48</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>18894.08</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9758,13 +9758,13 @@
         <v>5</v>
       </c>
       <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>23336.27</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11731.96</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9775,13 +9775,13 @@
         <v>6</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>1010.94</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>904.84</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9792,13 +9792,13 @@
         <v>14</v>
       </c>
       <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>9709.67</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2764.73</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9809,13 +9809,13 @@
         <v>9</v>
       </c>
       <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
         <v>7280.92</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>7007.7</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9826,13 +9826,13 @@
         <v>6</v>
       </c>
       <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
         <v>34424.40000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>11027.36</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9843,13 +9843,13 @@
         <v>18</v>
       </c>
       <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
         <v>19056.72</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>7567.07</v>
-      </c>
-      <c r="E26">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9860,13 +9860,13 @@
         <v>5</v>
       </c>
       <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>144.76</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>122.86</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9877,13 +9877,13 @@
         <v>15</v>
       </c>
       <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
         <v>13193.8</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>7821.22</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9894,13 +9894,13 @@
         <v>7</v>
       </c>
       <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
         <v>5063.68</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3937.92</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9911,13 +9911,13 @@
         <v>16</v>
       </c>
       <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
         <v>51639.45</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>33318.58</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9928,13 +9928,13 @@
         <v>3</v>
       </c>
       <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
         <v>1367.91</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1251.44</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9945,13 +9945,13 @@
         <v>4</v>
       </c>
       <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
         <v>442.69</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>199.99</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9962,13 +9962,13 @@
         <v>4</v>
       </c>
       <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>17199.02</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>14370.22</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9979,13 +9979,13 @@
         <v>9</v>
       </c>
       <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
         <v>22285.42</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>10054.37</v>
-      </c>
-      <c r="E34">
-        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9996,13 +9996,13 @@
         <v>7</v>
       </c>
       <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
         <v>40200.45</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>39747.63</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10013,13 +10013,13 @@
         <v>10</v>
       </c>
       <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>2373.23</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1853.12</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10030,13 +10030,13 @@
         <v>4</v>
       </c>
       <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
         <v>854.6999999999999</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>820.41</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10047,13 +10047,13 @@
         <v>6</v>
       </c>
       <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
         <v>711.38</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>440.45</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10064,13 +10064,13 @@
         <v>21</v>
       </c>
       <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
         <v>56847.91</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>35821.21</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -10089,13 +10089,13 @@
         <v>8</v>
       </c>
       <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
         <v>303306.39</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>294981.15</v>
-      </c>
-      <c r="E41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10106,13 +10106,13 @@
         <v>5</v>
       </c>
       <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
         <v>7131.02</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>6942.94</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10123,13 +10123,13 @@
         <v>13</v>
       </c>
       <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
         <v>15611.74</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>5655.91</v>
-      </c>
-      <c r="E43">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -10140,13 +10140,13 @@
         <v>9</v>
       </c>
       <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
         <v>35565</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>18754.9</v>
-      </c>
-      <c r="E44">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10157,13 +10157,13 @@
         <v>13</v>
       </c>
       <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
         <v>79963.72</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>39681.07</v>
-      </c>
-      <c r="E45">
-        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10174,13 +10174,13 @@
         <v>14</v>
       </c>
       <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
         <v>1367.79</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>249.8</v>
-      </c>
-      <c r="E46">
-        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10199,13 +10199,13 @@
         <v>6</v>
       </c>
       <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
         <v>124.16</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>68.23</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10216,13 +10216,13 @@
         <v>11</v>
       </c>
       <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
         <v>11575.84</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>10181.4</v>
-      </c>
-      <c r="E49">
-        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10233,13 +10233,13 @@
         <v>13</v>
       </c>
       <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
         <v>41857.58999999999</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>12587.61</v>
-      </c>
-      <c r="E50">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10250,13 +10250,13 @@
         <v>8</v>
       </c>
       <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
         <v>3474.75</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2171.43</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
